--- a/src/conf/i18n.xlsx
+++ b/src/conf/i18n.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/src/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5792FB03-2833-F545-89FF-D7242D183375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB76DDF-5CCD-6046-8E4D-4A43421CB7DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修订履历" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>修订履历</t>
   </si>
@@ -253,6 +255,14 @@
     <t>语言地区修改为大写</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>资源ID【%s】重复，请检查。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_013</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -261,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -309,6 +319,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -380,7 +397,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -455,6 +472,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1788,7 +1808,7 @@
   </sheetPr>
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -2056,7 +2076,7 @@
   </sheetPr>
   <dimension ref="A1:IS18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
@@ -2354,14 +2374,18 @@
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="16" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G17" s="16"/>
+        <v>资源ID【%s】重复，请检查。</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:8">
